--- a/src/main/java/com/qa/data/datasheet_1.xlsx
+++ b/src/main/java/com/qa/data/datasheet_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Java_Amazon\AmazonTest\src\main\java\com\qa\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C7490CE-73A5-4C3D-B10E-B1A64E6488AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{752D4671-23E8-437F-BD21-19DFAA1B3F1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
     <t>9175837086</t>
   </si>
@@ -29,9 +29,6 @@
   </si>
   <si>
     <t>uname</t>
-  </si>
-  <si>
-    <t>a</t>
   </si>
   <si>
     <t>amazonchirag</t>
@@ -387,38 +384,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="B2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
       </c>
     </row>
